--- a/BackupData/dataSet.xlsx
+++ b/BackupData/dataSet.xlsx
@@ -586,13 +586,13 @@
         <v>108035991394074624</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="str">
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>212533092</v>
+        <v>213984602</v>
       </c>
       <c r="E2" s="1" t="str">
         <v>1</v>
@@ -812,7 +812,7 @@
         <v>710728271045853184</v>
       </c>
       <c r="B3" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="str">
         <v>1</v>
@@ -1084,7 +1084,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA15"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1183,13 +1183,13 @@
         <v>Saiyan</v>
       </c>
       <c r="D2" s="1">
-        <v>7252979</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
         <v>20</v>
       </c>
       <c r="F2" s="1">
-        <v>16608</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
         <v>263</v>
@@ -1210,7 +1210,7 @@
         <v>113</v>
       </c>
       <c r="M2" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N2" s="1">
         <v>233</v>
@@ -1272,7 +1272,7 @@
         <v>25</v>
       </c>
       <c r="F3" s="1">
-        <v>16271</v>
+        <v>14571</v>
       </c>
       <c r="G3" s="1">
         <v>431</v>
@@ -1349,13 +1349,13 @@
         <v>Core_Person</v>
       </c>
       <c r="D4" s="1">
-        <v>2488362</v>
+        <v>5322291</v>
       </c>
       <c r="E4" s="1">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1">
-        <v>2679</v>
+        <v>3814</v>
       </c>
       <c r="G4" s="1">
         <v>378</v>
@@ -1503,31 +1503,31 @@
         <v>Saiyan</v>
       </c>
       <c r="D6" s="1">
-        <v>12284924</v>
+        <v>13372475</v>
       </c>
       <c r="E6" s="1">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="F6" s="1">
-        <v>1546</v>
+        <v>1776</v>
       </c>
       <c r="G6" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H6" s="1">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="I6" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J6" s="1">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K6" s="1">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L6" s="1">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M6" s="1">
         <v>5</v>
@@ -1551,7 +1551,7 @@
         <v>19</v>
       </c>
       <c r="T6" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1" t="str">
         <v>xp</v>
@@ -1586,31 +1586,31 @@
         <v>Core_Person</v>
       </c>
       <c r="D7" s="1">
-        <v>11630321</v>
+        <v>12717872</v>
       </c>
       <c r="E7" s="1">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F7" s="1">
-        <v>1527</v>
+        <v>1762</v>
       </c>
       <c r="G7" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H7" s="1">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="I7" s="1">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="J7" s="1">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K7" s="1">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="L7" s="1">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M7" s="1">
         <v>18</v>
@@ -1634,7 +1634,7 @@
         <v>33</v>
       </c>
       <c r="T7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1" t="str">
         <v>xp</v>
@@ -1740,203 +1740,179 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="str">
-        <v>710728271045853184</v>
+        <v>98153913609375744</v>
       </c>
       <c r="B9" s="1" t="str">
-        <v>Alice</v>
+        <v>Aran</v>
       </c>
       <c r="C9" s="1" t="str">
-        <v>Human</v>
+        <v>Dragon_Clan</v>
       </c>
       <c r="D9" s="1">
-        <v>15653977</v>
+        <v>84</v>
       </c>
       <c r="E9" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>818</v>
+        <v>4</v>
       </c>
       <c r="G9" s="1">
-        <v>154</v>
+        <v>4</v>
       </c>
       <c r="H9" s="1">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>458</v>
+        <v>2</v>
       </c>
       <c r="M9" s="1">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1" t="str">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="O9" s="1" t="str">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="P9" s="1" t="str">
-        <v>https://cdn.discordapp.com/attachments/832585611486691408/1079320426100052038/image.png</v>
+        <v>https://cdn.discordapp.com/avatars/98153913609375744/d7c9144b2c5ad04d41f04194b87010b8.webp</v>
       </c>
       <c r="Q9" s="1" t="str">
         <v>1</v>
       </c>
       <c r="R9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" s="1">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="T9" s="1">
-        <v>4</v>
-      </c>
-      <c r="U9" s="1" t="str">
-        <v>xp</v>
+        <v>NaN</v>
       </c>
       <c r="V9" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="W9" s="1">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="X9" s="1">
-        <v>11</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>36</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="AA9" s="1" t="str">
-        <v>Kiai_Style</v>
+        <v>No_Style</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="str">
-        <v>710728271045853184</v>
+        <v>98153913609375744</v>
       </c>
       <c r="B10" s="1" t="str">
-        <v>Amy</v>
+        <v>Glorious-revolution</v>
       </c>
       <c r="C10" s="1" t="str">
-        <v>Half-Saiyan</v>
+        <v>Human</v>
       </c>
       <c r="D10" s="1">
-        <v>12509748</v>
+        <v>1264</v>
       </c>
       <c r="E10" s="1">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="F10" s="1">
-        <v>3103</v>
+        <v>14</v>
       </c>
       <c r="G10" s="1">
-        <v>699</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>926</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>407</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>395</v>
+        <v>5</v>
       </c>
       <c r="L10" s="1">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="M10" s="1">
-        <v>6</v>
-      </c>
-      <c r="N10" s="1">
-        <v>246</v>
-      </c>
-      <c r="O10" s="1">
-        <v>245</v>
+        <v>0</v>
+      </c>
+      <c r="N10" s="1" t="str">
+        <v>148</v>
+      </c>
+      <c r="O10" s="1" t="str">
+        <v>147</v>
       </c>
       <c r="P10" s="1" t="str">
-        <v>https://cdn.discordapp.com/attachments/832585611486691408/1079300587377672292/00668-1891263402-masterpiece20best20quality_masterpiece20best20quality20official20art_1.png</v>
+        <v>https://cdn.discordapp.com/attachments/821722808475320361/987677792994983946/unknown.png</v>
       </c>
       <c r="Q10" s="1" t="str">
         <v>1</v>
       </c>
       <c r="R10" s="1">
-        <v>1</v>
-      </c>
-      <c r="S10" s="1" t="str">
-        <v>33</v>
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>-1</v>
       </c>
       <c r="T10" s="1">
-        <v>11</v>
-      </c>
-      <c r="U10" s="1" t="str">
-        <v>xp</v>
+        <v>NaN</v>
       </c>
       <c r="V10" s="1">
-        <v>2</v>
-      </c>
-      <c r="W10" s="1">
-        <v>27</v>
-      </c>
-      <c r="X10" s="1">
-        <v>7</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>45</v>
-      </c>
-      <c r="Z10" s="1">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="AA10" s="1" t="str">
-        <v>Kiai_Style</v>
+        <v>No_Style</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="str">
-        <v>98153913609375744</v>
+        <v>108035991394074624</v>
       </c>
       <c r="B11" s="1" t="str">
-        <v>Aran</v>
+        <v>Buuma</v>
       </c>
       <c r="C11" s="1" t="str">
-        <v>Dragon_Clan</v>
+        <v>Majin</v>
       </c>
       <c r="D11" s="1">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
         <v>4</v>
       </c>
-      <c r="G11" s="1">
-        <v>4</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
       <c r="J11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="1">
         <v>2</v>
@@ -1944,17 +1920,17 @@
       <c r="M11" s="1">
         <v>0</v>
       </c>
-      <c r="N11" s="1" t="str">
-        <v>146</v>
-      </c>
-      <c r="O11" s="1" t="str">
-        <v>145</v>
+      <c r="N11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>-1</v>
       </c>
       <c r="P11" s="1" t="str">
-        <v>https://cdn.discordapp.com/avatars/98153913609375744/d7c9144b2c5ad04d41f04194b87010b8.webp</v>
-      </c>
-      <c r="Q11" s="1" t="str">
-        <v>1</v>
+        <v>https://cdn.discordapp.com/avatars/108035991394074624/7f56aadc79a2cb1256671992044857b6.webp</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
       </c>
       <c r="R11" s="1">
         <v>0</v>
@@ -1963,329 +1939,21 @@
         <v>-1</v>
       </c>
       <c r="T11" s="1">
-        <v>NaN</v>
+        <v>0</v>
+      </c>
+      <c r="U11" s="1" t="str">
+        <v/>
       </c>
       <c r="V11" s="1">
         <v>28</v>
       </c>
-      <c r="W11" s="1">
-        <v>31</v>
-      </c>
-      <c r="X11" s="1">
-        <v>3</v>
-      </c>
       <c r="AA11" s="1" t="str">
         <v>No_Style</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="str">
-        <v>98153913609375744</v>
-      </c>
-      <c r="B12" s="1" t="str">
-        <v>Glorious-revolution</v>
-      </c>
-      <c r="C12" s="1" t="str">
-        <v>Human</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1264</v>
-      </c>
-      <c r="E12" s="1">
-        <v>5</v>
-      </c>
-      <c r="F12" s="1">
-        <v>14</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <v>5</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1" t="str">
-        <v>148</v>
-      </c>
-      <c r="O12" s="1" t="str">
-        <v>147</v>
-      </c>
-      <c r="P12" s="1" t="str">
-        <v>https://cdn.discordapp.com/attachments/821722808475320361/987677792994983946/unknown.png</v>
-      </c>
-      <c r="Q12" s="1" t="str">
-        <v>1</v>
-      </c>
-      <c r="R12" s="1">
-        <v>0</v>
-      </c>
-      <c r="S12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T12" s="1">
-        <v>NaN</v>
-      </c>
-      <c r="V12" s="1">
-        <v>28</v>
-      </c>
-      <c r="AA12" s="1" t="str">
-        <v>No_Style</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="str">
-        <v>710728271045853184</v>
-      </c>
-      <c r="B13" s="1" t="str">
-        <v>Newvi</v>
-      </c>
-      <c r="C13" s="1" t="str">
-        <v>Arcosian</v>
-      </c>
-      <c r="D13" s="1">
-        <v>11693254</v>
-      </c>
-      <c r="E13" s="1">
-        <v>5</v>
-      </c>
-      <c r="F13" s="1">
-        <v>136</v>
-      </c>
-      <c r="G13" s="1">
-        <v>195</v>
-      </c>
-      <c r="H13" s="1">
-        <v>314</v>
-      </c>
-      <c r="I13" s="1">
-        <v>75</v>
-      </c>
-      <c r="J13" s="1">
-        <v>116</v>
-      </c>
-      <c r="K13" s="1">
-        <v>105</v>
-      </c>
-      <c r="L13" s="1">
-        <v>37</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1" t="str">
-        <v>161</v>
-      </c>
-      <c r="O13" s="1" t="str">
-        <v>209</v>
-      </c>
-      <c r="P13" s="1" t="str">
-        <v>https://cdn.discordapp.com/avatars/710728271045853184/1bf303fe18b03dd5e266ad6cc83e9032.webp</v>
-      </c>
-      <c r="Q13" s="1" t="str">
-        <v>1</v>
-      </c>
-      <c r="R13" s="1">
-        <v>0</v>
-      </c>
-      <c r="S13" s="1" t="str">
-        <v>34</v>
-      </c>
-      <c r="T13" s="1">
-        <v>0</v>
-      </c>
-      <c r="U13" s="1" t="str">
-        <v>txp</v>
-      </c>
-      <c r="V13" s="1">
-        <v>40</v>
-      </c>
-      <c r="W13" s="1">
-        <v>32</v>
-      </c>
-      <c r="X13" s="1">
-        <v>27</v>
-      </c>
-      <c r="Y13" s="1">
-        <v>3</v>
-      </c>
-      <c r="Z13" s="1">
-        <v>45</v>
-      </c>
-      <c r="AA13" s="1" t="str">
-        <v>Kiai_Style</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="str">
-        <v>710728271045853184</v>
-      </c>
-      <c r="B14" s="1" t="str">
-        <v>Lynne</v>
-      </c>
-      <c r="C14" s="1" t="str">
-        <v>Android</v>
-      </c>
-      <c r="D14" s="1">
-        <v>15848120</v>
-      </c>
-      <c r="E14" s="1">
-        <v>10</v>
-      </c>
-      <c r="F14" s="1">
-        <v>418</v>
-      </c>
-      <c r="G14" s="1">
-        <v>653</v>
-      </c>
-      <c r="H14" s="1">
-        <v>299</v>
-      </c>
-      <c r="I14" s="1">
-        <v>397</v>
-      </c>
-      <c r="J14" s="1">
-        <v>127</v>
-      </c>
-      <c r="K14" s="1">
-        <v>344</v>
-      </c>
-      <c r="L14" s="1">
-        <v>234</v>
-      </c>
-      <c r="M14" s="1">
-        <v>6</v>
-      </c>
-      <c r="N14" s="1" t="str">
-        <v>186</v>
-      </c>
-      <c r="O14" s="1">
-        <v>255</v>
-      </c>
-      <c r="P14" s="1" t="str">
-        <v>https://cdn.discordapp.com/attachments/832585611486691408/1079522453224697976/image.png</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>1</v>
-      </c>
-      <c r="R14" s="1">
-        <v>1</v>
-      </c>
-      <c r="S14" s="1" t="str">
-        <v>33</v>
-      </c>
-      <c r="T14" s="1">
-        <v>0</v>
-      </c>
-      <c r="U14" s="1" t="str">
-        <v>xp</v>
-      </c>
-      <c r="V14" s="1">
-        <v>27</v>
-      </c>
-      <c r="W14" s="1">
-        <v>2</v>
-      </c>
-      <c r="X14" s="1">
-        <v>47</v>
-      </c>
-      <c r="Y14" s="1">
-        <v>38</v>
-      </c>
-      <c r="Z14" s="1">
-        <v>45</v>
-      </c>
-      <c r="AA14" s="1" t="str">
-        <v>Kiai_Style</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="str">
-        <v>108035991394074624</v>
-      </c>
-      <c r="B15" s="1" t="str">
-        <v>Buuma</v>
-      </c>
-      <c r="C15" s="1" t="str">
-        <v>Majin</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>5</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1">
-        <v>4</v>
-      </c>
-      <c r="J15" s="1">
-        <v>2</v>
-      </c>
-      <c r="K15" s="1">
-        <v>1</v>
-      </c>
-      <c r="L15" s="1">
-        <v>2</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P15" s="1" t="str">
-        <v>https://cdn.discordapp.com/avatars/108035991394074624/7f56aadc79a2cb1256671992044857b6.webp</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>0</v>
-      </c>
-      <c r="R15" s="1">
-        <v>0</v>
-      </c>
-      <c r="S15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T15" s="1">
-        <v>0</v>
-      </c>
-      <c r="U15" s="1" t="str">
-        <v/>
-      </c>
-      <c r="V15" s="1">
-        <v>28</v>
-      </c>
-      <c r="AA15" s="1" t="str">
-        <v>No_Style</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AA15"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AA11"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2388,13 +2056,13 @@
         <v>Saiyan</v>
       </c>
       <c r="D2" s="1">
-        <v>13050053</v>
+        <v>14788254</v>
       </c>
       <c r="E2" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F2" s="1">
-        <v>2610</v>
+        <v>2965</v>
       </c>
       <c r="G2" s="1">
         <v>535</v>
@@ -2465,13 +2133,13 @@
         <v>Saiyan</v>
       </c>
       <c r="D3" s="1">
-        <v>13100015</v>
+        <v>14841259</v>
       </c>
       <c r="E3" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F3" s="1">
-        <v>2620</v>
+        <v>2975</v>
       </c>
       <c r="G3" s="1">
         <v>264</v>
@@ -2542,34 +2210,34 @@
         <v>Saiyan</v>
       </c>
       <c r="D4" s="1">
-        <v>1159721</v>
+        <v>2060777</v>
       </c>
       <c r="E4" s="1">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F4" s="1">
-        <v>1175</v>
+        <v>1745</v>
       </c>
       <c r="G4" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H4" s="1">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="I4" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J4" s="1">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K4" s="1">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="L4" s="1">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="M4" s="1">
-        <v>2906</v>
+        <v>2917</v>
       </c>
       <c r="N4" s="1">
         <v>10</v>
@@ -2616,34 +2284,34 @@
         <v>Namekian</v>
       </c>
       <c r="D5" s="1">
-        <v>2455002</v>
+        <v>3360187</v>
       </c>
       <c r="E5" s="1">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F5" s="1">
-        <v>1947</v>
+        <v>2362</v>
       </c>
       <c r="G5" s="1">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="H5" s="1">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I5" s="1">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="J5" s="1">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="K5" s="1">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L5" s="1">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M5" s="1">
-        <v>2750</v>
+        <v>2761</v>
       </c>
       <c r="N5" s="1">
         <v>20</v>
@@ -2696,13 +2364,13 @@
         <v>Majin</v>
       </c>
       <c r="D6" s="1">
-        <v>2245438</v>
+        <v>3102989</v>
       </c>
       <c r="E6" s="1">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F6" s="1">
-        <v>1841</v>
+        <v>2256</v>
       </c>
       <c r="G6" s="1">
         <v>432</v>
@@ -2776,34 +2444,34 @@
         <v>Human</v>
       </c>
       <c r="D7" s="1">
-        <v>496682</v>
+        <v>1097657</v>
       </c>
       <c r="E7" s="1">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F7" s="1">
-        <v>646</v>
+        <v>1144</v>
       </c>
       <c r="G7" s="1">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H7" s="1">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I7" s="1">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="J7" s="1">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K7" s="1">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L7" s="1">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M7" s="1">
-        <v>1704</v>
+        <v>1716</v>
       </c>
       <c r="N7" s="1">
         <v>15</v>
@@ -2921,34 +2589,34 @@
         <v>Android</v>
       </c>
       <c r="D9" s="1">
-        <v>1088395</v>
+        <v>1997086</v>
       </c>
       <c r="E9" s="1">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F9" s="1">
-        <v>1134</v>
+        <v>1724</v>
       </c>
       <c r="G9" s="1">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="H9" s="1">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="I9" s="1">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="J9" s="1">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K9" s="1">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L9" s="1">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M9" s="1">
-        <v>2947</v>
+        <v>2959</v>
       </c>
       <c r="N9" s="1">
         <v>13</v>
@@ -2995,13 +2663,13 @@
         <v>Half-Saiyan</v>
       </c>
       <c r="D10" s="1">
-        <v>9806803</v>
+        <v>109964</v>
       </c>
       <c r="E10" s="1">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F10" s="1">
-        <v>2850</v>
+        <v>202</v>
       </c>
       <c r="G10" s="1">
         <v>1284</v>
@@ -3025,7 +2693,7 @@
         <v>4254</v>
       </c>
       <c r="N10" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O10" s="1" t="str">
         <v>54</v>
@@ -3073,7 +2741,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -3086,64 +2754,88 @@
         <v>Owner ID</v>
       </c>
       <c r="C1" s="1" t="str">
+        <v>Inv 1</v>
+      </c>
+      <c r="D1" s="1" t="str">
+        <v>Inv 2</v>
+      </c>
+      <c r="E1" s="1" t="str">
+        <v>Inv 3</v>
+      </c>
+      <c r="F1" s="1" t="str">
+        <v>Inv 4</v>
+      </c>
+      <c r="G1" s="1" t="str">
+        <v>Inv 5</v>
+      </c>
+      <c r="H1" s="1" t="str">
+        <v>Inv 6</v>
+      </c>
+      <c r="I1" s="1" t="str">
         <v>Item Count</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="J1" s="1" t="str">
         <v>Item 1</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="K1" s="1" t="str">
         <v>Item 2</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="L1" s="1" t="str">
         <v>Item 3</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="M1" s="1" t="str">
         <v>Item 4</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="N1" s="1" t="str">
         <v>Item 5</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="O1" s="1" t="str">
         <v>Item 6</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="P1" s="1" t="str">
         <v>Item 7</v>
       </c>
-      <c r="K1" s="1" t="str">
+      <c r="Q1" s="1" t="str">
         <v>Item 8</v>
       </c>
-      <c r="L1" s="1" t="str">
+      <c r="R1" s="1" t="str">
         <v>Item 9</v>
       </c>
-      <c r="M1" s="1" t="str">
+      <c r="S1" s="1" t="str">
         <v>Item 10</v>
       </c>
-      <c r="N1" s="1" t="str">
+      <c r="T1" s="1" t="str">
         <v>Item 11</v>
       </c>
-      <c r="O1" s="1" t="str">
+      <c r="U1" s="1" t="str">
         <v>Item 12</v>
       </c>
-      <c r="P1" s="1" t="str">
+      <c r="V1" s="1" t="str">
         <v>Item 13</v>
       </c>
-      <c r="Q1" s="1" t="str">
+      <c r="W1" s="1" t="str">
         <v>Item 14</v>
       </c>
-      <c r="R1" s="1" t="str">
+      <c r="X1" s="1" t="str">
         <v>Item 15</v>
       </c>
-      <c r="S1" s="1" t="str">
+      <c r="Y1" s="1" t="str">
         <v>Item 16</v>
       </c>
-      <c r="T1" s="1" t="str">
+      <c r="Z1" s="1" t="str">
         <v>Item 17</v>
       </c>
-      <c r="U1" s="1" t="str">
+      <c r="AA1" s="1" t="str">
         <v>Item 18</v>
       </c>
-      <c r="V1" s="1" t="str">
+      <c r="AB1" s="1" t="str">
         <v>Item 19</v>
+      </c>
+      <c r="AC1" s="1" t="str">
+        <v>Item 20</v>
+      </c>
+      <c r="AD1" s="1" t="str">
+        <v>Item 21</v>
       </c>
     </row>
     <row r="2">
@@ -3154,61 +2846,88 @@
         <v>108035991394074624</v>
       </c>
       <c r="C2" s="1">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="str">
         <v>135</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="K2" s="1" t="str">
         <v>175</v>
       </c>
-      <c r="F2" s="1">
+      <c r="L2" s="1">
         <v>239</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="M2" s="1" t="str">
         <v>176</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="N2" s="1" t="str">
         <v>177</v>
       </c>
-      <c r="I2" s="1">
+      <c r="O2" s="1">
         <v>234</v>
       </c>
-      <c r="J2" s="1">
+      <c r="P2" s="1">
         <v>211</v>
       </c>
-      <c r="K2" s="1">
+      <c r="Q2" s="1">
         <v>222</v>
       </c>
-      <c r="L2" s="1">
+      <c r="R2" s="1">
         <v>226</v>
       </c>
-      <c r="M2" s="1">
+      <c r="S2" s="1">
         <v>238</v>
       </c>
-      <c r="N2" s="1">
+      <c r="T2" s="1">
         <v>224</v>
       </c>
-      <c r="O2" s="1" t="str">
+      <c r="U2" s="1" t="str">
         <v>89</v>
       </c>
-      <c r="P2" s="1">
+      <c r="V2" s="1">
         <v>257</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="W2" s="1">
         <v>258</v>
       </c>
-      <c r="R2" s="1">
+      <c r="X2" s="1">
         <v>259</v>
       </c>
-      <c r="S2" s="1">
+      <c r="Y2" s="1">
         <v>260</v>
       </c>
-      <c r="T2" s="1">
+      <c r="Z2" s="1">
         <v>266</v>
       </c>
-      <c r="U2" s="1">
+      <c r="AA2" s="1">
         <v>267</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>272</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>273</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>274</v>
       </c>
     </row>
     <row r="3">
@@ -3219,63 +2938,81 @@
         <v>710728271045853184</v>
       </c>
       <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
         <v>19</v>
       </c>
-      <c r="D3" s="1">
+      <c r="J3" s="1">
         <v>240</v>
       </c>
-      <c r="E3" s="1" t="str">
+      <c r="K3" s="1" t="str">
         <v>156</v>
       </c>
-      <c r="F3" s="1" t="str">
+      <c r="L3" s="1" t="str">
         <v>208</v>
       </c>
-      <c r="G3" s="1" t="str">
+      <c r="M3" s="1" t="str">
         <v>94</v>
       </c>
-      <c r="H3" s="1">
+      <c r="N3" s="1">
         <v>243</v>
       </c>
-      <c r="I3" s="1">
+      <c r="O3" s="1">
         <v>220</v>
       </c>
-      <c r="J3" s="1" t="str">
+      <c r="P3" s="1" t="str">
         <v>162</v>
       </c>
-      <c r="K3" s="1" t="str">
+      <c r="Q3" s="1" t="str">
         <v>184</v>
       </c>
-      <c r="L3" s="1">
+      <c r="R3" s="1">
         <v>253</v>
       </c>
-      <c r="M3" s="1">
+      <c r="S3" s="1">
         <v>256</v>
       </c>
-      <c r="N3" s="1">
+      <c r="T3" s="1">
         <v>261</v>
       </c>
-      <c r="O3" s="1">
+      <c r="U3" s="1">
         <v>262</v>
       </c>
-      <c r="P3" s="1">
+      <c r="V3" s="1">
         <v>263</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="W3" s="1">
         <v>264</v>
       </c>
-      <c r="R3" s="1">
+      <c r="X3" s="1">
         <v>265</v>
       </c>
-      <c r="S3" s="1">
+      <c r="Y3" s="1">
         <v>268</v>
       </c>
-      <c r="T3" s="1">
+      <c r="Z3" s="1">
         <v>269</v>
       </c>
-      <c r="U3" s="1">
+      <c r="AA3" s="1">
         <v>270</v>
       </c>
-      <c r="V3" s="1">
+      <c r="AB3" s="1">
         <v>271</v>
       </c>
     </row>
@@ -3289,17 +3026,35 @@
       <c r="C4" s="1">
         <v>0</v>
       </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:V4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AD4"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH112"/>
+  <dimension ref="A1:AH115"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -7569,7 +7324,7 @@
         <v>2</v>
       </c>
       <c r="H43" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I43" s="1">
         <v>-1</v>
@@ -7670,7 +7425,7 @@
         <v>2</v>
       </c>
       <c r="H44" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I44" s="1">
         <v>-1</v>
@@ -9185,7 +8940,7 @@
         <v>2</v>
       </c>
       <c r="H59" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I59" s="1">
         <v>-1</v>
@@ -10195,7 +9950,7 @@
         <v>2</v>
       </c>
       <c r="H69" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I69" s="1">
         <v>-1</v>
@@ -10902,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I76" s="1">
         <v>-1</v>
@@ -12619,7 +12374,7 @@
         <v>2</v>
       </c>
       <c r="H93" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I93" s="1">
         <v>-1</v>
@@ -12720,7 +12475,7 @@
         <v>2</v>
       </c>
       <c r="H94" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I94" s="1">
         <v>-1</v>
@@ -12922,7 +12677,7 @@
         <v>1</v>
       </c>
       <c r="H96" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I96" s="1">
         <v>-1</v>
@@ -14619,16 +14374,319 @@
         <v>0.03149619608185852</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="1">
+        <v>272</v>
+      </c>
+      <c r="B113" s="1" t="str">
+        <v>Healer's_Orb</v>
+      </c>
+      <c r="C113" s="1" t="str">
+        <v>Weapon</v>
+      </c>
+      <c r="E113" s="1">
+        <v>0</v>
+      </c>
+      <c r="F113" s="1" t="str">
+        <v>High</v>
+      </c>
+      <c r="G113" s="1">
+        <v>1</v>
+      </c>
+      <c r="H113" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I113" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J113" s="1">
+        <v>0</v>
+      </c>
+      <c r="K113" s="1">
+        <v>0</v>
+      </c>
+      <c r="L113" s="1">
+        <v>0</v>
+      </c>
+      <c r="M113" s="1">
+        <v>0</v>
+      </c>
+      <c r="N113" s="1">
+        <v>0.03133626791629745</v>
+      </c>
+      <c r="O113" s="1">
+        <v>0</v>
+      </c>
+      <c r="P113" s="1">
+        <v>0.03051193348782433</v>
+      </c>
+      <c r="Q113" s="1">
+        <v>0</v>
+      </c>
+      <c r="R113" s="1">
+        <v>0</v>
+      </c>
+      <c r="S113" s="1">
+        <v>0</v>
+      </c>
+      <c r="T113" s="1">
+        <v>0</v>
+      </c>
+      <c r="U113" s="1">
+        <v>0</v>
+      </c>
+      <c r="V113" s="1">
+        <v>0</v>
+      </c>
+      <c r="W113" s="1">
+        <v>0</v>
+      </c>
+      <c r="X113" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y113" s="1">
+        <v>0.048626775507982306</v>
+      </c>
+      <c r="Z113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE113" s="1">
+        <v>0.07263806067917399</v>
+      </c>
+      <c r="AF113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1">
+        <v>273</v>
+      </c>
+      <c r="B114" s="1" t="str">
+        <v>Magician's_Gun</v>
+      </c>
+      <c r="C114" s="1" t="str">
+        <v>Weapon</v>
+      </c>
+      <c r="E114" s="1">
+        <v>0</v>
+      </c>
+      <c r="F114" s="1" t="str">
+        <v>High</v>
+      </c>
+      <c r="G114" s="1">
+        <v>1</v>
+      </c>
+      <c r="H114" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I114" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J114" s="1">
+        <v>0</v>
+      </c>
+      <c r="K114" s="1">
+        <v>0</v>
+      </c>
+      <c r="L114" s="1">
+        <v>0</v>
+      </c>
+      <c r="M114" s="1">
+        <v>0</v>
+      </c>
+      <c r="N114" s="1">
+        <v>0</v>
+      </c>
+      <c r="O114" s="1">
+        <v>0.09074144469115775</v>
+      </c>
+      <c r="P114" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="1">
+        <v>0</v>
+      </c>
+      <c r="R114" s="1">
+        <v>0</v>
+      </c>
+      <c r="S114" s="1">
+        <v>0</v>
+      </c>
+      <c r="T114" s="1">
+        <v>0.09755917140408737</v>
+      </c>
+      <c r="U114" s="1">
+        <v>0</v>
+      </c>
+      <c r="V114" s="1">
+        <v>0.08852540185373875</v>
+      </c>
+      <c r="W114" s="1">
+        <v>0</v>
+      </c>
+      <c r="X114" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y114" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z114" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA114" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB114" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC114" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD114" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE114" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF114" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG114" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1">
+        <v>274</v>
+      </c>
+      <c r="B115" s="1" t="str">
+        <v>Martial_Artist's_Cane</v>
+      </c>
+      <c r="C115" s="1" t="str">
+        <v>Weapon</v>
+      </c>
+      <c r="E115" s="1">
+        <v>0</v>
+      </c>
+      <c r="F115" s="1" t="str">
+        <v>Standard</v>
+      </c>
+      <c r="G115" s="1">
+        <v>1</v>
+      </c>
+      <c r="H115" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I115" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J115" s="1">
+        <v>0</v>
+      </c>
+      <c r="K115" s="1">
+        <v>0.0980738007626075</v>
+      </c>
+      <c r="L115" s="1">
+        <v>0</v>
+      </c>
+      <c r="M115" s="1">
+        <v>0</v>
+      </c>
+      <c r="N115" s="1">
+        <v>0</v>
+      </c>
+      <c r="O115" s="1">
+        <v>0</v>
+      </c>
+      <c r="P115" s="1">
+        <v>0.07391352508204052</v>
+      </c>
+      <c r="Q115" s="1">
+        <v>0</v>
+      </c>
+      <c r="R115" s="1">
+        <v>0</v>
+      </c>
+      <c r="S115" s="1">
+        <v>0</v>
+      </c>
+      <c r="T115" s="1">
+        <v>0</v>
+      </c>
+      <c r="U115" s="1">
+        <v>0</v>
+      </c>
+      <c r="V115" s="1">
+        <v>0</v>
+      </c>
+      <c r="W115" s="1">
+        <v>0</v>
+      </c>
+      <c r="X115" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y115" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z115" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA115" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB115" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC115" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD115" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE115" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF115" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG115" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH115" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AH112"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AH115"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD24"/>
+  <dimension ref="A1:AD20"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -15202,7 +15260,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>0.10000000000000002</v>
+        <v>0.05</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -15211,10 +15269,10 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>0.4000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="J7" s="1">
-        <v>0.4000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
@@ -15271,7 +15329,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="1">
-        <v>0.10000000000000002</v>
+        <v>0.05</v>
       </c>
       <c r="AD7" s="1" t="str">
         <v>NPCKrillin</v>
@@ -16199,13 +16257,13 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="str">
-        <v>Kiai_Style</v>
+        <v>No_Style</v>
       </c>
       <c r="B18" s="1" t="str">
         <v>Fighting Style</v>
       </c>
       <c r="C18" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D18" s="1">
         <v>-1</v>
@@ -16217,16 +16275,16 @@
         <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>0.20000000000000004</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
       </c>
       <c r="I18" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J18" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
@@ -16247,7 +16305,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="1">
         <v>0</v>
@@ -16256,7 +16314,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>0</v>
@@ -16283,33 +16341,33 @@
         <v>0</v>
       </c>
       <c r="AC18" s="1">
-        <v>0.22000000000000008</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="1" t="str">
-        <v>710728271045853184Alice</v>
+        <v>98153913609375744Aran</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="str">
-        <v>Kiai_Style</v>
+        <v>No_Style</v>
       </c>
       <c r="B19" s="1" t="str">
         <v>Fighting Style</v>
       </c>
       <c r="C19" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D19" s="1">
         <v>-1</v>
       </c>
       <c r="E19" s="1">
-        <v>0.5000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -16318,7 +16376,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="1">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
@@ -16354,7 +16412,7 @@
         <v>0</v>
       </c>
       <c r="V19" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W19" s="1">
         <v>0</v>
@@ -16372,13 +16430,13 @@
         <v>0</v>
       </c>
       <c r="AB19" s="1">
-        <v>0.09999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="1">
         <v>0</v>
       </c>
       <c r="AD19" s="1" t="str">
-        <v>710728271045853184Amy</v>
+        <v>98153913609375744Glorious-revolution</v>
       </c>
     </row>
     <row r="20">
@@ -16470,380 +16528,12 @@
         <v>0</v>
       </c>
       <c r="AD20" s="1" t="str">
-        <v>98153913609375744Aran</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="str">
-        <v>No_Style</v>
-      </c>
-      <c r="B21" s="1" t="str">
-        <v>Fighting Style</v>
-      </c>
-      <c r="C21" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D21" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0</v>
-      </c>
-      <c r="N21" s="1">
-        <v>0</v>
-      </c>
-      <c r="O21" s="1">
-        <v>0</v>
-      </c>
-      <c r="P21" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>0</v>
-      </c>
-      <c r="R21" s="1">
-        <v>0</v>
-      </c>
-      <c r="S21" s="1">
-        <v>0</v>
-      </c>
-      <c r="T21" s="1">
-        <v>0</v>
-      </c>
-      <c r="U21" s="1">
-        <v>0</v>
-      </c>
-      <c r="V21" s="1">
-        <v>0</v>
-      </c>
-      <c r="W21" s="1">
-        <v>0</v>
-      </c>
-      <c r="X21" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="1" t="str">
-        <v>98153913609375744Glorious-revolution</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="str">
-        <v>Kiai_Style</v>
-      </c>
-      <c r="B22" s="1" t="str">
-        <v>Fighting Style</v>
-      </c>
-      <c r="C22" s="1">
-        <v>3</v>
-      </c>
-      <c r="D22" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0.47000000000000003</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0</v>
-      </c>
-      <c r="M22" s="1">
-        <v>0</v>
-      </c>
-      <c r="N22" s="1">
-        <v>0</v>
-      </c>
-      <c r="O22" s="1">
-        <v>0</v>
-      </c>
-      <c r="P22" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>0</v>
-      </c>
-      <c r="R22" s="1">
-        <v>0</v>
-      </c>
-      <c r="S22" s="1">
-        <v>0</v>
-      </c>
-      <c r="T22" s="1">
-        <v>0</v>
-      </c>
-      <c r="U22" s="1">
-        <v>0</v>
-      </c>
-      <c r="V22" s="1">
-        <v>0</v>
-      </c>
-      <c r="W22" s="1">
-        <v>0</v>
-      </c>
-      <c r="X22" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="1" t="str">
-        <v>710728271045853184Newvi</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="str">
-        <v>Kiai_Style</v>
-      </c>
-      <c r="B23" s="1" t="str">
-        <v>Fighting Style</v>
-      </c>
-      <c r="C23" s="1">
-        <v>3</v>
-      </c>
-      <c r="D23" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0.5000000000000003</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0.25000000000000006</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0.5000000000000002</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0</v>
-      </c>
-      <c r="N23" s="1">
-        <v>0</v>
-      </c>
-      <c r="O23" s="1">
-        <v>0</v>
-      </c>
-      <c r="P23" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>0</v>
-      </c>
-      <c r="R23" s="1">
-        <v>0</v>
-      </c>
-      <c r="S23" s="1">
-        <v>0</v>
-      </c>
-      <c r="T23" s="1">
-        <v>0</v>
-      </c>
-      <c r="U23" s="1">
-        <v>0</v>
-      </c>
-      <c r="V23" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="W23" s="1">
-        <v>0</v>
-      </c>
-      <c r="X23" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="1" t="str">
-        <v>710728271045853184Lynne</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="str">
-        <v>No_Style</v>
-      </c>
-      <c r="B24" s="1" t="str">
-        <v>Fighting Style</v>
-      </c>
-      <c r="C24" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D24" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0</v>
-      </c>
-      <c r="L24" s="1">
-        <v>0</v>
-      </c>
-      <c r="M24" s="1">
-        <v>0</v>
-      </c>
-      <c r="N24" s="1">
-        <v>0</v>
-      </c>
-      <c r="O24" s="1">
-        <v>0</v>
-      </c>
-      <c r="P24" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>0</v>
-      </c>
-      <c r="R24" s="1">
-        <v>0</v>
-      </c>
-      <c r="S24" s="1">
-        <v>0</v>
-      </c>
-      <c r="T24" s="1">
-        <v>0</v>
-      </c>
-      <c r="U24" s="1">
-        <v>0</v>
-      </c>
-      <c r="V24" s="1">
-        <v>0</v>
-      </c>
-      <c r="W24" s="1">
-        <v>0</v>
-      </c>
-      <c r="X24" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="1" t="str">
         <v>108035991394074624Buuma</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AD24"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AD20"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -18504,7 +18194,7 @@
         <v>Transform</v>
       </c>
       <c r="S25" s="1">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="T25" s="1">
         <v>-1</v>
@@ -21566,7 +21256,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -21587,12 +21277,6 @@
       <c r="E1" s="1" t="str">
         <v>Member 2 Name</v>
       </c>
-      <c r="F1" s="1" t="str">
-        <v>Member 3 ID</v>
-      </c>
-      <c r="G1" s="1" t="str">
-        <v>Member 3 Name</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="str">
@@ -21632,12 +21316,6 @@
       <c r="E4" s="1" t="str">
         <v>Lyra</v>
       </c>
-      <c r="F4" s="1" t="str">
-        <v>710728271045853184</v>
-      </c>
-      <c r="G4" s="1" t="str">
-        <v>Newvi</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -21649,22 +21327,10 @@
       <c r="C5" s="1" t="str">
         <v>Zeno-sama</v>
       </c>
-      <c r="D5" s="1" t="str">
-        <v>710728271045853184</v>
-      </c>
-      <c r="E5" s="1" t="str">
-        <v>Lynne</v>
-      </c>
-      <c r="F5" s="1" t="str">
-        <v>710728271045853184</v>
-      </c>
-      <c r="G5" s="1" t="str">
-        <v>Amy</v>
-      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E5"/>
   </ignoredErrors>
 </worksheet>
 </file>